--- a/Docs/5.) Miscellaneous Transaction Report/MiscTransReport SF Scrap Data.xlsx
+++ b/Docs/5.) Miscellaneous Transaction Report/MiscTransReport SF Scrap Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mon\Desktop\LSPI ERP Report Project\GitHub Repo\ERPREPORTS\Docs\5.) Miscellaneous Transaction Report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D4909F3-D30E-4F7C-A460-DC96BBDAA4BC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86586804-9674-4EEF-AC54-BB54E5A0383C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-2700" windowWidth="29040" windowHeight="15840" xr2:uid="{E2106DAB-4521-4D15-BD5E-528FEBDFF314}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{E2106DAB-4521-4D15-BD5E-528FEBDFF314}"/>
   </bookViews>
   <sheets>
     <sheet name="SF Scrap Summary" sheetId="1" r:id="rId1"/>
@@ -990,15 +990,6 @@
   </cellStyleXfs>
   <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
@@ -1083,18 +1074,6 @@
       <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
@@ -1135,28 +1114,8 @@
       <alignment vertical="top" wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1" readingOrder="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="166" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="top" wrapText="1" readingOrder="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1204,18 +1163,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="top" wrapText="1" readingOrder="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1239,17 +1186,45 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="42" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="33" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="44" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="45" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="46" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="top" wrapText="1" readingOrder="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="top" wrapText="1" readingOrder="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="top" wrapText="1" readingOrder="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="top" wrapText="1" readingOrder="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1" readingOrder="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1" readingOrder="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
@@ -1262,28 +1237,53 @@
       <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1" readingOrder="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="top" wrapText="1" readingOrder="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="top" wrapText="1" readingOrder="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="top" wrapText="1" readingOrder="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="top" wrapText="1" readingOrder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -1603,10 +1603,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16725842-5B8C-4133-8656-C6A9932B8155}">
   <dimension ref="A1:K26"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozenSplit"/>
       <selection activeCell="I30" sqref="I30"/>
-      <selection pane="bottomLeft" activeCell="C13" sqref="C13"/>
+      <selection pane="bottomLeft" activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2317,686 +2317,691 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="71"/>
+      <c r="I1" s="71"/>
+      <c r="J1" s="71"/>
+      <c r="K1" s="71"/>
     </row>
     <row r="2" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
+      <c r="A2" s="72"/>
+      <c r="B2" s="73"/>
+      <c r="G2" s="73"/>
+      <c r="H2" s="73"/>
     </row>
     <row r="3" spans="1:11" ht="27" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="5" t="s">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="H3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="9" t="s">
+      <c r="I3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="J3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K3" s="10"/>
+      <c r="K3" s="7"/>
     </row>
     <row r="4" spans="1:11" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="11"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="12" t="s">
+      <c r="A4" s="8"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="13">
+      <c r="D4" s="10">
         <v>30.10384904</v>
       </c>
-      <c r="E4" s="14">
+      <c r="E4" s="11">
         <v>0.73404994000000001</v>
       </c>
-      <c r="F4" s="14">
+      <c r="F4" s="11">
         <v>17.701245999999998</v>
       </c>
-      <c r="G4" s="14">
+      <c r="G4" s="11">
         <v>11.604756999999999</v>
       </c>
-      <c r="H4" s="15">
+      <c r="H4" s="12">
         <v>56.425196999999997</v>
       </c>
-      <c r="I4" s="16">
+      <c r="I4" s="13">
         <v>0.11722566</v>
       </c>
-      <c r="J4" s="14">
+      <c r="J4" s="11">
         <f>SUM(D4:I4)</f>
         <v>116.68632464</v>
       </c>
-      <c r="K4" s="11"/>
+      <c r="K4" s="8"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" s="11"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="12" t="s">
+      <c r="A5" s="8"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="13">
+      <c r="D5" s="10">
         <v>113.58359812</v>
       </c>
-      <c r="E5" s="14">
+      <c r="E5" s="11">
         <v>0.30601572999999999</v>
       </c>
-      <c r="F5" s="14">
+      <c r="F5" s="11">
         <v>11.92222524</v>
       </c>
-      <c r="G5" s="14">
+      <c r="G5" s="11">
         <v>65.086108939999988</v>
       </c>
-      <c r="H5" s="17">
+      <c r="H5" s="14">
         <v>21.069456600000002</v>
       </c>
-      <c r="I5" s="16">
+      <c r="I5" s="13">
         <v>15.642042369999999</v>
       </c>
-      <c r="J5" s="14">
+      <c r="J5" s="11">
         <f t="shared" ref="J5:J6" si="0">SUM(D5:I5)</f>
         <v>227.60944699999999</v>
       </c>
-      <c r="K5" s="11"/>
+      <c r="K5" s="8"/>
     </row>
     <row r="6" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="11"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="12" t="s">
+      <c r="A6" s="8"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="13">
+      <c r="D6" s="10">
         <v>330.33175132000002</v>
       </c>
-      <c r="E6" s="14">
+      <c r="E6" s="11">
         <v>25.424301209999996</v>
       </c>
-      <c r="F6" s="14">
+      <c r="F6" s="11">
         <v>0</v>
       </c>
-      <c r="G6" s="14">
+      <c r="G6" s="11">
         <v>0</v>
       </c>
-      <c r="H6" s="18">
+      <c r="H6" s="15">
         <v>0</v>
       </c>
-      <c r="I6" s="16">
+      <c r="I6" s="13">
         <v>57.492925</v>
       </c>
-      <c r="J6" s="14">
+      <c r="J6" s="11">
         <f t="shared" si="0"/>
         <v>413.24897753000005</v>
       </c>
-      <c r="K6" s="11"/>
+      <c r="K6" s="8"/>
     </row>
     <row r="7" spans="1:11" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="11"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="19" t="s">
+      <c r="A7" s="8"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="20">
+      <c r="D7" s="17">
         <f>SUM(D4:D6)</f>
         <v>474.01919848</v>
       </c>
-      <c r="E7" s="20">
+      <c r="E7" s="17">
         <f t="shared" ref="E7:I7" si="1">SUM(E4:E6)</f>
         <v>26.464366879999996</v>
       </c>
-      <c r="F7" s="20">
+      <c r="F7" s="17">
         <f t="shared" si="1"/>
         <v>29.623471239999997</v>
       </c>
-      <c r="G7" s="20">
+      <c r="G7" s="17">
         <f t="shared" si="1"/>
         <v>76.690865939999981</v>
       </c>
-      <c r="H7" s="20">
+      <c r="H7" s="17">
         <f t="shared" si="1"/>
         <v>77.494653599999992</v>
       </c>
-      <c r="I7" s="20">
+      <c r="I7" s="17">
         <f t="shared" si="1"/>
         <v>73.252193030000001</v>
       </c>
-      <c r="J7" s="21">
+      <c r="J7" s="18">
         <f>SUM(J4:J6)</f>
         <v>757.54474917000005</v>
       </c>
-      <c r="K7" s="11"/>
+      <c r="K7" s="8"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8" s="11"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="22"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11"/>
-      <c r="K8" s="11"/>
+      <c r="A8" s="8"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" s="11"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="11"/>
-      <c r="K9" s="11"/>
+      <c r="A9" s="8"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
     </row>
     <row r="10" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="11"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="23"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11"/>
-      <c r="K10" s="11"/>
+      <c r="A10" s="8"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
     </row>
     <row r="11" spans="1:11" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="24"/>
-      <c r="B11" s="24"/>
-      <c r="C11" s="24"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="25" t="s">
+      <c r="A11" s="21"/>
+      <c r="B11" s="21"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="74" t="s">
         <v>13</v>
       </c>
-      <c r="F11" s="26"/>
-      <c r="G11" s="26"/>
-      <c r="H11" s="26"/>
-      <c r="I11" s="26"/>
-      <c r="J11" s="27"/>
-      <c r="K11" s="10"/>
+      <c r="F11" s="75"/>
+      <c r="G11" s="75"/>
+      <c r="H11" s="75"/>
+      <c r="I11" s="75"/>
+      <c r="J11" s="76"/>
+      <c r="K11" s="7"/>
     </row>
     <row r="12" spans="1:11" ht="27" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="28" t="s">
+      <c r="A12" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="28" t="s">
+      <c r="B12" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="28" t="s">
+      <c r="C12" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="28" t="s">
+      <c r="D12" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="E12" s="29" t="s">
+      <c r="E12" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="F12" s="30" t="s">
+      <c r="F12" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="G12" s="30" t="s">
+      <c r="G12" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="H12" s="8" t="s">
+      <c r="H12" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="I12" s="30" t="s">
+      <c r="I12" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="J12" s="31" t="s">
+      <c r="J12" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="K12" s="5" t="s">
+      <c r="K12" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="51.75" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="32" t="s">
+      <c r="A13" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="33" t="s">
+      <c r="B13" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="32" t="s">
+      <c r="C13" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="32" t="s">
+      <c r="D13" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="E13" s="34" t="s">
+      <c r="E13" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="F13" s="35" t="s">
+      <c r="F13" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="G13" s="35" t="s">
+      <c r="G13" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="H13" s="35" t="s">
+      <c r="H13" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="I13" s="35" t="s">
+      <c r="I13" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="J13" s="36" t="s">
+      <c r="J13" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="K13" s="32" t="s">
+      <c r="K13" s="26" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A14" s="37" t="s">
+      <c r="A14" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="46" t="s">
+      <c r="B14" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="46" t="s">
+      <c r="C14" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="D14" s="39">
+      <c r="D14" s="32">
         <v>12</v>
       </c>
-      <c r="E14" s="13">
+      <c r="E14" s="10">
         <v>0.17900735000000001</v>
       </c>
-      <c r="F14" s="14">
+      <c r="F14" s="11">
         <v>5.4787300000000002E-3</v>
       </c>
-      <c r="G14" s="14">
+      <c r="G14" s="11">
         <v>0.22746</v>
       </c>
-      <c r="H14" s="17">
+      <c r="H14" s="14">
         <v>0.1326</v>
       </c>
-      <c r="I14" s="14">
+      <c r="I14" s="11">
         <v>0.30293999999999999</v>
       </c>
-      <c r="J14" s="16">
+      <c r="J14" s="13">
         <v>8.3016999999999997E-4</v>
       </c>
-      <c r="K14" s="14">
+      <c r="K14" s="11">
         <v>10.179794999999999</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="40"/>
-      <c r="B15" s="75" t="s">
+      <c r="A15" s="64"/>
+      <c r="B15" s="68" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="75" t="s">
+      <c r="C15" s="68" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="39">
+      <c r="D15" s="32">
         <v>8</v>
       </c>
-      <c r="E15" s="13">
+      <c r="E15" s="10">
         <v>0.14636524000000001</v>
       </c>
-      <c r="F15" s="14">
+      <c r="F15" s="11">
         <v>3.4989800000000001E-3</v>
       </c>
-      <c r="G15" s="14">
+      <c r="G15" s="11">
         <v>7.8385999999999997E-2</v>
       </c>
-      <c r="H15" s="17">
+      <c r="H15" s="14">
         <v>5.2427000000000001E-2</v>
       </c>
-      <c r="I15" s="14">
+      <c r="I15" s="11">
         <v>0.27638699999999999</v>
       </c>
-      <c r="J15" s="16">
+      <c r="J15" s="13">
         <v>4.1669999999999999E-5</v>
       </c>
-      <c r="K15" s="14">
+      <c r="K15" s="11">
         <v>4.4568471199999999</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="40"/>
-      <c r="B16" s="76"/>
-      <c r="C16" s="76"/>
-      <c r="D16" s="39">
+      <c r="A16" s="64"/>
+      <c r="B16" s="69"/>
+      <c r="C16" s="69"/>
+      <c r="D16" s="32">
         <v>48</v>
       </c>
-      <c r="E16" s="13">
+      <c r="E16" s="10">
         <v>0.14636524000000001</v>
       </c>
-      <c r="F16" s="14">
+      <c r="F16" s="11">
         <v>3.4989800000000001E-3</v>
       </c>
-      <c r="G16" s="14">
+      <c r="G16" s="11">
         <v>7.8385999999999997E-2</v>
       </c>
-      <c r="H16" s="17">
+      <c r="H16" s="14">
         <v>5.2427000000000001E-2</v>
       </c>
-      <c r="I16" s="14">
+      <c r="I16" s="11">
         <v>0.27638699999999999</v>
       </c>
-      <c r="J16" s="16">
+      <c r="J16" s="13">
         <v>2.5001999999999999E-4</v>
       </c>
-      <c r="K16" s="14">
+      <c r="K16" s="11">
         <v>26.751083519999998</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="40"/>
-      <c r="B17" s="77"/>
-      <c r="C17" s="77"/>
-      <c r="D17" s="39">
+      <c r="A17" s="64"/>
+      <c r="B17" s="70"/>
+      <c r="C17" s="70"/>
+      <c r="D17" s="32">
         <v>135</v>
       </c>
-      <c r="E17" s="13">
+      <c r="E17" s="10">
         <v>0.14636524000000001</v>
       </c>
-      <c r="F17" s="14">
+      <c r="F17" s="11">
         <v>3.4989800000000001E-3</v>
       </c>
-      <c r="G17" s="14">
+      <c r="G17" s="11">
         <v>7.8385999999999997E-2</v>
       </c>
-      <c r="H17" s="17">
+      <c r="H17" s="14">
         <v>5.2427000000000001E-2</v>
       </c>
-      <c r="I17" s="14">
+      <c r="I17" s="11">
         <v>0.27638699999999999</v>
       </c>
-      <c r="J17" s="16">
+      <c r="J17" s="13">
         <v>7.0317999999999997E-4</v>
       </c>
-      <c r="K17" s="14">
+      <c r="K17" s="11">
         <v>75.29859900000001</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="78" t="s">
+      <c r="A18" s="65" t="s">
         <v>61</v>
       </c>
-      <c r="B18" s="79"/>
-      <c r="C18" s="79"/>
-      <c r="D18" s="80"/>
-      <c r="E18" s="81"/>
-      <c r="F18" s="81"/>
-      <c r="G18" s="81"/>
-      <c r="H18" s="81"/>
-      <c r="I18" s="81"/>
-      <c r="J18" s="82"/>
-      <c r="K18" s="83">
+      <c r="B18" s="66"/>
+      <c r="C18" s="66"/>
+      <c r="D18" s="59"/>
+      <c r="E18" s="60"/>
+      <c r="F18" s="60"/>
+      <c r="G18" s="60"/>
+      <c r="H18" s="60"/>
+      <c r="I18" s="60"/>
+      <c r="J18" s="61"/>
+      <c r="K18" s="62">
         <v>116.68632464000001</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A19" s="37" t="s">
+      <c r="A19" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="B19" s="38" t="s">
+      <c r="B19" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="C19" s="38" t="s">
+      <c r="C19" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="D19" s="39">
+      <c r="D19" s="32">
         <v>1</v>
       </c>
-      <c r="E19" s="13">
+      <c r="E19" s="10">
         <v>10.001602119999999</v>
       </c>
-      <c r="F19" s="14">
+      <c r="F19" s="11">
         <v>0.22760776999999999</v>
       </c>
-      <c r="G19" s="14">
+      <c r="G19" s="11">
         <v>5.1909000000000005E-4</v>
       </c>
-      <c r="H19" s="17">
+      <c r="H19" s="14">
         <v>5.1909000000000005E-4</v>
       </c>
-      <c r="I19" s="14">
+      <c r="I19" s="11">
         <v>4.2970775999999997</v>
       </c>
-      <c r="J19" s="16">
+      <c r="J19" s="13">
         <v>1.51647815</v>
       </c>
-      <c r="K19" s="14">
+      <c r="K19" s="11">
         <v>16.043803819999997</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A20" s="40"/>
-      <c r="B20" s="38" t="s">
+      <c r="A20" s="64"/>
+      <c r="B20" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="38" t="s">
+      <c r="C20" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="D20" s="39">
+      <c r="D20" s="32">
         <v>5</v>
       </c>
-      <c r="E20" s="13">
+      <c r="E20" s="10">
         <v>18.971250000000001</v>
       </c>
-      <c r="F20" s="14">
+      <c r="F20" s="11">
         <v>0</v>
       </c>
-      <c r="G20" s="14">
+      <c r="G20" s="11">
         <v>0</v>
       </c>
-      <c r="H20" s="17">
+      <c r="H20" s="14">
         <v>0</v>
       </c>
-      <c r="I20" s="14">
+      <c r="I20" s="11">
         <v>0</v>
       </c>
-      <c r="J20" s="16">
+      <c r="J20" s="13">
         <v>6.3393800000000004E-3</v>
       </c>
-      <c r="K20" s="14">
+      <c r="K20" s="11">
         <v>94.887946900000003</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A21" s="40"/>
-      <c r="B21" s="38" t="s">
+      <c r="A21" s="64"/>
+      <c r="B21" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="C21" s="38" t="s">
+      <c r="C21" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="D21" s="39">
+      <c r="D21" s="32">
         <v>4</v>
       </c>
-      <c r="E21" s="13">
+      <c r="E21" s="10">
         <v>2.1814364999999998</v>
       </c>
-      <c r="F21" s="14">
+      <c r="F21" s="11">
         <v>1.960199E-2</v>
       </c>
-      <c r="G21" s="14">
+      <c r="G21" s="11">
         <v>0</v>
       </c>
-      <c r="H21" s="17">
+      <c r="H21" s="14">
         <v>0</v>
       </c>
-      <c r="I21" s="14">
+      <c r="I21" s="11">
         <v>0</v>
       </c>
-      <c r="J21" s="16">
+      <c r="J21" s="13">
         <v>0.15564702999999999</v>
       </c>
-      <c r="K21" s="14">
+      <c r="K21" s="11">
         <v>9.4267420799999986</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="40"/>
-      <c r="B22" s="38" t="s">
+      <c r="A22" s="64"/>
+      <c r="B22" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="C22" s="38" t="s">
+      <c r="C22" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="D22" s="39">
+      <c r="D22" s="32">
         <v>5</v>
       </c>
-      <c r="E22" s="13">
+      <c r="E22" s="10">
         <v>0</v>
       </c>
-      <c r="F22" s="14">
+      <c r="F22" s="11">
         <v>0</v>
       </c>
-      <c r="G22" s="14">
+      <c r="G22" s="11">
         <v>2.38434123</v>
       </c>
-      <c r="H22" s="17">
+      <c r="H22" s="14">
         <v>13.017117969999999</v>
       </c>
-      <c r="I22" s="14">
+      <c r="I22" s="11">
         <v>3.3544757999999999</v>
       </c>
-      <c r="J22" s="16">
+      <c r="J22" s="13">
         <v>2.6942558399999998</v>
       </c>
-      <c r="K22" s="14">
+      <c r="K22" s="11">
         <v>107.25095420000001</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="78" t="s">
+      <c r="A23" s="65" t="s">
         <v>62</v>
       </c>
-      <c r="B23" s="79"/>
-      <c r="C23" s="79"/>
-      <c r="D23" s="80"/>
-      <c r="E23" s="81"/>
-      <c r="F23" s="81"/>
-      <c r="G23" s="81"/>
-      <c r="H23" s="81"/>
-      <c r="I23" s="81"/>
-      <c r="J23" s="82"/>
-      <c r="K23" s="83">
+      <c r="B23" s="66"/>
+      <c r="C23" s="66"/>
+      <c r="D23" s="59"/>
+      <c r="E23" s="60"/>
+      <c r="F23" s="60"/>
+      <c r="G23" s="60"/>
+      <c r="H23" s="60"/>
+      <c r="I23" s="60"/>
+      <c r="J23" s="61"/>
+      <c r="K23" s="62">
         <v>227.60944699999999</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A24" s="37" t="s">
+      <c r="A24" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="B24" s="38" t="s">
+      <c r="B24" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="C24" s="38" t="s">
+      <c r="C24" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="D24" s="39">
+      <c r="D24" s="32">
         <v>1</v>
       </c>
-      <c r="E24" s="13">
+      <c r="E24" s="10">
         <v>128.48066188000001</v>
       </c>
-      <c r="F24" s="14">
+      <c r="F24" s="11">
         <v>18.705477989999999</v>
       </c>
-      <c r="G24" s="14">
+      <c r="G24" s="11">
         <v>0</v>
       </c>
-      <c r="H24" s="17">
+      <c r="H24" s="14">
         <v>0</v>
       </c>
-      <c r="I24" s="14">
+      <c r="I24" s="11">
         <v>0</v>
       </c>
-      <c r="J24" s="16">
+      <c r="J24" s="13">
         <v>1.8387249999999999</v>
       </c>
-      <c r="K24" s="14">
+      <c r="K24" s="11">
         <v>149.02486487000002</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="41"/>
-      <c r="B25" s="38" t="s">
+      <c r="A25" s="67"/>
+      <c r="B25" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="C25" s="38" t="s">
+      <c r="C25" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="D25" s="39">
+      <c r="D25" s="32">
         <v>3</v>
       </c>
-      <c r="E25" s="13">
+      <c r="E25" s="10">
         <v>67.283696480000003</v>
       </c>
-      <c r="F25" s="14">
+      <c r="F25" s="11">
         <v>2.2396077399999998</v>
       </c>
-      <c r="G25" s="14">
+      <c r="G25" s="11">
         <v>0</v>
       </c>
-      <c r="H25" s="18">
+      <c r="H25" s="15">
         <v>0</v>
       </c>
-      <c r="I25" s="14">
+      <c r="I25" s="11">
         <v>0</v>
       </c>
-      <c r="J25" s="16">
+      <c r="J25" s="13">
         <v>18.551400000000001</v>
       </c>
-      <c r="K25" s="14">
+      <c r="K25" s="11">
         <v>264.22411266</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="78" t="s">
+      <c r="A26" s="65" t="s">
         <v>43</v>
       </c>
-      <c r="B26" s="79"/>
-      <c r="C26" s="79"/>
-      <c r="D26" s="80"/>
-      <c r="E26" s="81"/>
-      <c r="F26" s="81"/>
-      <c r="G26" s="81"/>
-      <c r="H26" s="81"/>
-      <c r="I26" s="81"/>
-      <c r="J26" s="82"/>
-      <c r="K26" s="83">
+      <c r="B26" s="66"/>
+      <c r="C26" s="66"/>
+      <c r="D26" s="59"/>
+      <c r="E26" s="60"/>
+      <c r="F26" s="60"/>
+      <c r="G26" s="60"/>
+      <c r="H26" s="60"/>
+      <c r="I26" s="60"/>
+      <c r="J26" s="61"/>
+      <c r="K26" s="62">
         <v>413.24897753000005</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="E11:J11"/>
+    <mergeCell ref="A14:A17"/>
     <mergeCell ref="A19:A22"/>
     <mergeCell ref="A23:C23"/>
     <mergeCell ref="A24:A25"/>
@@ -3004,11 +3009,6 @@
     <mergeCell ref="B15:B17"/>
     <mergeCell ref="C15:C17"/>
     <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="E11:J11"/>
-    <mergeCell ref="A14:A17"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.65000000000000013" bottom="0.23" header="0.65000000000000013" footer="0.23"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
@@ -3024,10 +3024,10 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:S18"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozenSplit"/>
       <selection activeCell="I30" sqref="I30"/>
-      <selection pane="bottomLeft" activeCell="F23" sqref="F23"/>
+      <selection pane="bottomLeft" activeCell="P29" sqref="P29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3995,628 +3995,628 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="22.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="77" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
     </row>
     <row r="2" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="2">
+      <c r="A2" s="72">
         <v>44008.542756921204</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
+      <c r="B2" s="73"/>
+      <c r="C2" s="73"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
     </row>
     <row r="3" spans="1:19" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="1:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="24"/>
-      <c r="B4" s="24"/>
-      <c r="C4" s="44"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="24"/>
-      <c r="I4" s="58" t="s">
+      <c r="A4" s="21"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="79" t="s">
         <v>13</v>
       </c>
-      <c r="J4" s="59"/>
-      <c r="K4" s="59"/>
-      <c r="L4" s="59"/>
-      <c r="M4" s="59"/>
-      <c r="N4" s="60"/>
-      <c r="O4" s="24"/>
+      <c r="J4" s="80"/>
+      <c r="K4" s="80"/>
+      <c r="L4" s="80"/>
+      <c r="M4" s="80"/>
+      <c r="N4" s="81"/>
+      <c r="O4" s="21"/>
     </row>
     <row r="5" spans="1:19" ht="27" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C5" s="45" t="s">
+      <c r="C5" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="G5" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="H5" s="53" t="s">
+      <c r="H5" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="I5" s="61" t="s">
+      <c r="I5" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="J5" s="30" t="s">
+      <c r="J5" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="K5" s="30" t="s">
+      <c r="K5" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="L5" s="30" t="s">
+      <c r="L5" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="M5" s="30" t="s">
+      <c r="M5" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="N5" s="62" t="s">
+      <c r="N5" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="O5" s="56" t="s">
+      <c r="O5" s="45" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:19" ht="45" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="35" t="s">
+      <c r="A6" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="B6" s="35" t="s">
+      <c r="B6" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="C6" s="50" t="s">
+      <c r="C6" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="35" t="s">
+      <c r="D6" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="35" t="s">
+      <c r="E6" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="F6" s="35" t="s">
+      <c r="F6" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="G6" s="35" t="s">
+      <c r="G6" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="H6" s="54" t="s">
+      <c r="H6" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="I6" s="63" t="s">
+      <c r="I6" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="J6" s="35" t="s">
+      <c r="J6" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="K6" s="35" t="s">
+      <c r="K6" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="L6" s="35" t="s">
+      <c r="L6" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="M6" s="35" t="s">
+      <c r="M6" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="N6" s="64" t="s">
+      <c r="N6" s="50" t="s">
         <v>25</v>
       </c>
-      <c r="O6" s="70" t="s">
+      <c r="O6" s="82" t="s">
         <v>60</v>
       </c>
-      <c r="P6" s="71"/>
-      <c r="Q6" s="71"/>
-      <c r="R6" s="71"/>
-      <c r="S6" s="71"/>
+      <c r="P6" s="83"/>
+      <c r="Q6" s="83"/>
+      <c r="R6" s="83"/>
+      <c r="S6" s="83"/>
     </row>
     <row r="7" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="51" t="s">
+      <c r="A7" s="40" t="s">
         <v>52</v>
       </c>
-      <c r="B7" s="52">
+      <c r="B7" s="41">
         <v>43955</v>
       </c>
-      <c r="C7" s="51" t="s">
+      <c r="C7" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="51" t="s">
+      <c r="D7" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="E7" s="51">
+      <c r="E7" s="40">
         <v>517</v>
       </c>
-      <c r="F7" s="51">
+      <c r="F7" s="40">
         <v>1</v>
       </c>
-      <c r="G7" s="51">
+      <c r="G7" s="40">
         <v>305</v>
       </c>
-      <c r="H7" s="55" t="s">
+      <c r="H7" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="I7" s="65">
+      <c r="I7" s="51">
         <v>10.001602119999999</v>
       </c>
-      <c r="J7" s="66">
+      <c r="J7" s="52">
         <v>0.22760776999999999</v>
       </c>
-      <c r="K7" s="66">
+      <c r="K7" s="52">
         <v>5.1909000000000005E-4</v>
       </c>
-      <c r="L7" s="66">
+      <c r="L7" s="52">
         <v>5.1909000000000005E-4</v>
       </c>
-      <c r="M7" s="66">
+      <c r="M7" s="52">
         <v>4.2970775999999997</v>
       </c>
-      <c r="N7" s="67">
+      <c r="N7" s="53">
         <v>1.51647815</v>
       </c>
-      <c r="O7" s="68">
+      <c r="O7" s="54">
         <v>16.043803819999997</v>
       </c>
     </row>
     <row r="8" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="51" t="s">
+      <c r="A8" s="40" t="s">
         <v>54</v>
       </c>
-      <c r="B8" s="52">
+      <c r="B8" s="41">
         <v>43956</v>
       </c>
-      <c r="C8" s="69" t="s">
+      <c r="C8" s="55" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="51" t="s">
+      <c r="D8" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="E8" s="51">
+      <c r="E8" s="40">
         <v>4000</v>
       </c>
-      <c r="F8" s="51">
+      <c r="F8" s="40">
         <v>12</v>
       </c>
-      <c r="G8" s="51">
+      <c r="G8" s="40">
         <v>365</v>
       </c>
-      <c r="H8" s="55" t="s">
+      <c r="H8" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="I8" s="65">
+      <c r="I8" s="51">
         <v>0.17900735000000001</v>
       </c>
-      <c r="J8" s="66">
+      <c r="J8" s="52">
         <v>5.4787300000000002E-3</v>
       </c>
-      <c r="K8" s="66">
+      <c r="K8" s="52">
         <v>0.22746</v>
       </c>
-      <c r="L8" s="66">
+      <c r="L8" s="52">
         <v>0.1326</v>
       </c>
-      <c r="M8" s="66">
+      <c r="M8" s="52">
         <v>0.30293999999999999</v>
       </c>
-      <c r="N8" s="67">
+      <c r="N8" s="53">
         <v>8.3016999999999997E-4</v>
       </c>
-      <c r="O8" s="68">
+      <c r="O8" s="54">
         <v>10.179794999999999</v>
       </c>
     </row>
     <row r="9" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="51" t="s">
+      <c r="A9" s="40" t="s">
         <v>55</v>
       </c>
-      <c r="B9" s="52">
+      <c r="B9" s="41">
         <v>43956</v>
       </c>
-      <c r="C9" s="51" t="s">
+      <c r="C9" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="51" t="s">
+      <c r="D9" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="E9" s="51">
+      <c r="E9" s="40">
         <v>1638</v>
       </c>
-      <c r="F9" s="51">
+      <c r="F9" s="40">
         <v>8</v>
       </c>
-      <c r="G9" s="51">
+      <c r="G9" s="40">
         <v>305</v>
       </c>
-      <c r="H9" s="55" t="s">
+      <c r="H9" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="I9" s="65">
+      <c r="I9" s="51">
         <v>0.14636524000000001</v>
       </c>
-      <c r="J9" s="66">
+      <c r="J9" s="52">
         <v>3.4989800000000001E-3</v>
       </c>
-      <c r="K9" s="66">
+      <c r="K9" s="52">
         <v>7.8385999999999997E-2</v>
       </c>
-      <c r="L9" s="66">
+      <c r="L9" s="52">
         <v>5.2427000000000001E-2</v>
       </c>
-      <c r="M9" s="66">
+      <c r="M9" s="52">
         <v>0.27638699999999999</v>
       </c>
-      <c r="N9" s="67">
+      <c r="N9" s="53">
         <v>4.1669999999999999E-5</v>
       </c>
-      <c r="O9" s="68">
+      <c r="O9" s="54">
         <v>4.4568471199999999</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A10" s="51" t="s">
+      <c r="A10" s="40" t="s">
         <v>53</v>
       </c>
-      <c r="B10" s="52">
+      <c r="B10" s="41">
         <v>43956</v>
       </c>
-      <c r="C10" s="51" t="s">
+      <c r="C10" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="D10" s="51" t="s">
+      <c r="D10" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="E10" s="51">
+      <c r="E10" s="40">
         <v>49</v>
       </c>
-      <c r="F10" s="51">
+      <c r="F10" s="40">
         <v>1</v>
       </c>
-      <c r="G10" s="51">
+      <c r="G10" s="40">
         <v>294</v>
       </c>
-      <c r="H10" s="55" t="s">
+      <c r="H10" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="I10" s="65">
+      <c r="I10" s="51">
         <v>128.48066188000001</v>
       </c>
-      <c r="J10" s="66">
+      <c r="J10" s="52">
         <v>18.705477989999999</v>
       </c>
-      <c r="K10" s="66">
+      <c r="K10" s="52">
         <v>0</v>
       </c>
-      <c r="L10" s="66">
+      <c r="L10" s="52">
         <v>0</v>
       </c>
-      <c r="M10" s="66">
+      <c r="M10" s="52">
         <v>0</v>
       </c>
-      <c r="N10" s="67">
+      <c r="N10" s="53">
         <v>1.8387249999999999</v>
       </c>
-      <c r="O10" s="68">
+      <c r="O10" s="54">
         <v>149.02486487000002</v>
       </c>
     </row>
     <row r="11" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="51" t="s">
+      <c r="A11" s="40" t="s">
         <v>55</v>
       </c>
-      <c r="B11" s="52">
+      <c r="B11" s="41">
         <v>43957</v>
       </c>
-      <c r="C11" s="51" t="s">
+      <c r="C11" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="D11" s="51" t="s">
+      <c r="D11" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="E11" s="51">
+      <c r="E11" s="40">
         <v>9900</v>
       </c>
-      <c r="F11" s="51">
+      <c r="F11" s="40">
         <v>48</v>
       </c>
-      <c r="G11" s="51">
+      <c r="G11" s="40">
         <v>305</v>
       </c>
-      <c r="H11" s="55" t="s">
+      <c r="H11" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="I11" s="65">
+      <c r="I11" s="51">
         <v>0.14636524000000001</v>
       </c>
-      <c r="J11" s="66">
+      <c r="J11" s="52">
         <v>3.4989800000000001E-3</v>
       </c>
-      <c r="K11" s="66">
+      <c r="K11" s="52">
         <v>7.8385999999999997E-2</v>
       </c>
-      <c r="L11" s="66">
+      <c r="L11" s="52">
         <v>5.2427000000000001E-2</v>
       </c>
-      <c r="M11" s="66">
+      <c r="M11" s="52">
         <v>0.27638699999999999</v>
       </c>
-      <c r="N11" s="67">
+      <c r="N11" s="53">
         <v>2.5001999999999999E-4</v>
       </c>
-      <c r="O11" s="68">
+      <c r="O11" s="54">
         <v>26.751083519999998</v>
       </c>
     </row>
     <row r="12" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="51" t="s">
+      <c r="A12" s="40" t="s">
         <v>55</v>
       </c>
-      <c r="B12" s="52">
+      <c r="B12" s="41">
         <v>43958</v>
       </c>
-      <c r="C12" s="51" t="s">
+      <c r="C12" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="D12" s="51" t="s">
+      <c r="D12" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="E12" s="51">
+      <c r="E12" s="40">
         <v>6650</v>
       </c>
-      <c r="F12" s="51">
+      <c r="F12" s="40">
         <v>135</v>
       </c>
-      <c r="G12" s="51">
+      <c r="G12" s="40">
         <v>305</v>
       </c>
-      <c r="H12" s="55" t="s">
+      <c r="H12" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="I12" s="65">
+      <c r="I12" s="51">
         <v>0.14636524000000001</v>
       </c>
-      <c r="J12" s="66">
+      <c r="J12" s="52">
         <v>3.4989800000000001E-3</v>
       </c>
-      <c r="K12" s="66">
+      <c r="K12" s="52">
         <v>7.8385999999999997E-2</v>
       </c>
-      <c r="L12" s="66">
+      <c r="L12" s="52">
         <v>5.2427000000000001E-2</v>
       </c>
-      <c r="M12" s="66">
+      <c r="M12" s="52">
         <v>0.27638699999999999</v>
       </c>
-      <c r="N12" s="67">
+      <c r="N12" s="53">
         <v>7.0317999999999997E-4</v>
       </c>
-      <c r="O12" s="68">
+      <c r="O12" s="54">
         <v>75.29859900000001</v>
       </c>
     </row>
     <row r="13" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="51" t="s">
+      <c r="A13" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="B13" s="52">
+      <c r="B13" s="41">
         <v>43958</v>
       </c>
-      <c r="C13" s="51" t="s">
+      <c r="C13" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="D13" s="51" t="s">
+      <c r="D13" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="E13" s="51">
+      <c r="E13" s="40">
         <v>995</v>
       </c>
-      <c r="F13" s="51">
+      <c r="F13" s="40">
         <v>5</v>
       </c>
-      <c r="G13" s="51">
+      <c r="G13" s="40">
         <v>603</v>
       </c>
-      <c r="H13" s="55" t="s">
+      <c r="H13" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="I13" s="65">
+      <c r="I13" s="51">
         <v>18.971250000000001</v>
       </c>
-      <c r="J13" s="66">
+      <c r="J13" s="52">
         <v>0</v>
       </c>
-      <c r="K13" s="66">
+      <c r="K13" s="52">
         <v>0</v>
       </c>
-      <c r="L13" s="66">
+      <c r="L13" s="52">
         <v>0</v>
       </c>
-      <c r="M13" s="66">
+      <c r="M13" s="52">
         <v>0</v>
       </c>
-      <c r="N13" s="67">
+      <c r="N13" s="53">
         <v>6.3393800000000004E-3</v>
       </c>
-      <c r="O13" s="68">
+      <c r="O13" s="54">
         <v>94.887946900000003</v>
       </c>
     </row>
     <row r="14" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="51" t="s">
+      <c r="A14" s="40" t="s">
         <v>58</v>
       </c>
-      <c r="B14" s="52">
+      <c r="B14" s="41">
         <v>43958</v>
       </c>
-      <c r="C14" s="51" t="s">
+      <c r="C14" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="D14" s="51" t="s">
+      <c r="D14" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="E14" s="51">
+      <c r="E14" s="40">
         <v>196</v>
       </c>
-      <c r="F14" s="51">
+      <c r="F14" s="40">
         <v>4</v>
       </c>
-      <c r="G14" s="51">
+      <c r="G14" s="40">
         <v>603</v>
       </c>
-      <c r="H14" s="55" t="s">
+      <c r="H14" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="I14" s="65">
+      <c r="I14" s="51">
         <v>2.1814364999999998</v>
       </c>
-      <c r="J14" s="66">
+      <c r="J14" s="52">
         <v>1.960199E-2</v>
       </c>
-      <c r="K14" s="66">
+      <c r="K14" s="52">
         <v>0</v>
       </c>
-      <c r="L14" s="66">
+      <c r="L14" s="52">
         <v>0</v>
       </c>
-      <c r="M14" s="66">
+      <c r="M14" s="52">
         <v>0</v>
       </c>
-      <c r="N14" s="67">
+      <c r="N14" s="53">
         <v>0.15564702999999999</v>
       </c>
-      <c r="O14" s="68">
+      <c r="O14" s="54">
         <v>9.4267420799999986</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A15" s="51" t="s">
+      <c r="A15" s="40" t="s">
         <v>56</v>
       </c>
-      <c r="B15" s="52">
+      <c r="B15" s="41">
         <v>43958</v>
       </c>
-      <c r="C15" s="51" t="s">
+      <c r="C15" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="D15" s="51" t="s">
+      <c r="D15" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="E15" s="51">
+      <c r="E15" s="40">
         <v>497</v>
       </c>
-      <c r="F15" s="51">
+      <c r="F15" s="40">
         <v>3</v>
       </c>
-      <c r="G15" s="51">
+      <c r="G15" s="40">
         <v>347</v>
       </c>
-      <c r="H15" s="55" t="s">
+      <c r="H15" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="I15" s="65">
+      <c r="I15" s="51">
         <v>67.283696480000003</v>
       </c>
-      <c r="J15" s="66">
+      <c r="J15" s="52">
         <v>2.2396077399999998</v>
       </c>
-      <c r="K15" s="66">
+      <c r="K15" s="52">
         <v>0</v>
       </c>
-      <c r="L15" s="66">
+      <c r="L15" s="52">
         <v>0</v>
       </c>
-      <c r="M15" s="66">
+      <c r="M15" s="52">
         <v>0</v>
       </c>
-      <c r="N15" s="67">
+      <c r="N15" s="53">
         <v>18.551400000000001</v>
       </c>
-      <c r="O15" s="68">
+      <c r="O15" s="54">
         <v>264.22411266</v>
       </c>
     </row>
     <row r="16" spans="1:19" ht="13.5" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="51" t="s">
+      <c r="A16" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="B16" s="52">
+      <c r="B16" s="41">
         <v>43960</v>
       </c>
-      <c r="C16" s="51" t="s">
+      <c r="C16" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="D16" s="51" t="s">
+      <c r="D16" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="E16" s="51">
+      <c r="E16" s="40">
         <v>290</v>
       </c>
-      <c r="F16" s="51">
+      <c r="F16" s="40">
         <v>5</v>
       </c>
-      <c r="G16" s="51">
+      <c r="G16" s="40">
         <v>603</v>
       </c>
-      <c r="H16" s="55" t="s">
+      <c r="H16" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="I16" s="72">
+      <c r="I16" s="56">
         <v>0</v>
       </c>
-      <c r="J16" s="73">
+      <c r="J16" s="57">
         <v>0</v>
       </c>
-      <c r="K16" s="73">
+      <c r="K16" s="57">
         <v>2.38434123</v>
       </c>
-      <c r="L16" s="73">
+      <c r="L16" s="57">
         <v>13.017117969999999</v>
       </c>
-      <c r="M16" s="73">
+      <c r="M16" s="57">
         <v>3.3544757999999999</v>
       </c>
-      <c r="N16" s="74">
+      <c r="N16" s="58">
         <v>2.6942558399999998</v>
       </c>
-      <c r="O16" s="68">
+      <c r="O16" s="54">
         <v>107.25095420000001</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A17" s="47"/>
-      <c r="B17" s="47"/>
-      <c r="C17" s="48"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="49"/>
-      <c r="F17" s="49"/>
-      <c r="G17" s="47"/>
-      <c r="H17" s="47"/>
-      <c r="I17" s="57"/>
-      <c r="J17" s="57"/>
-      <c r="K17" s="57"/>
-      <c r="L17" s="57"/>
-      <c r="M17" s="57"/>
-      <c r="N17" s="57"/>
-      <c r="O17" s="49"/>
+      <c r="A17" s="36"/>
+      <c r="B17" s="36"/>
+      <c r="C17" s="37"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="38"/>
+      <c r="F17" s="38"/>
+      <c r="G17" s="36"/>
+      <c r="H17" s="36"/>
+      <c r="I17" s="46"/>
+      <c r="J17" s="46"/>
+      <c r="K17" s="46"/>
+      <c r="L17" s="46"/>
+      <c r="M17" s="46"/>
+      <c r="N17" s="46"/>
+      <c r="O17" s="38"/>
     </row>
     <row r="18" spans="1:15" ht="409.6" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
